--- a/data/financial_statements/socf/FAST.xlsx
+++ b/data/financial_statements/socf/FAST.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -116,9 +236,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -171,12 +288,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -473,1482 +587,1515 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>245600000</v>
+      </c>
+      <c r="C2">
         <v>284600000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>287100000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>269600000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>231200000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>243500000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>239700000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>210600000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>196100000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>221500000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>238900000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>202600000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>178700000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>213500000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>204600000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>194100000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>168800000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>197600000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>211200000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>174300000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>152400000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>143100000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>148900000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>134200000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>114800000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>126900000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>131500000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>126200000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>111943000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>136494000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>140357000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>127606000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>118391000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>133314000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>130514000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>111931000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>99229000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>119350000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>121009000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>109048000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>44700000</v>
+      </c>
+      <c r="C3">
         <v>44100000</v>
-      </c>
-      <c r="C3">
-        <v>43900000</v>
       </c>
       <c r="D3">
         <v>43900000</v>
       </c>
       <c r="E3">
+        <v>43900000</v>
+      </c>
+      <c r="F3">
         <v>43600000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>42800000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>42300000</v>
-      </c>
-      <c r="H3">
-        <v>42000000</v>
       </c>
       <c r="I3">
         <v>42000000</v>
       </c>
       <c r="J3">
+        <v>42000000</v>
+      </c>
+      <c r="K3">
         <v>41100000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>40700000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>38600000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>37900000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>37300000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>37100000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>36400000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>35900000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>34800000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>34100000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>33400000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>32300000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>32500000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>31900000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>30700000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>29100000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>26700000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>24800000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>23400000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>25705000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>21337000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>20014000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>19544000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>18801000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>18418000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>18040000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>17413000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>16689000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>16375000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>15949000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>15178000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>-7400000</v>
+      </c>
+      <c r="C4">
         <v>2800000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>500000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>5700000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-13000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>4100000</v>
-      </c>
-      <c r="G4">
-        <v>1100000</v>
       </c>
       <c r="H4">
         <v>1100000</v>
       </c>
       <c r="I4">
+        <v>1100000</v>
+      </c>
+      <c r="J4">
         <v>2200000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>4800000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>4100000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>3600000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>14400000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>3100000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>3600000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>3900000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>14000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>8100000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>9200000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>15200000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>-29000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>4800000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>3200000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>3400000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>25900000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>4100000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>2800000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>5000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>9684000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>2814000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>4642000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>4360000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>5405000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>4195000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>3855000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>3766000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>11114000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>4139000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>1660000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>2607000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>103100000</v>
+      </c>
+      <c r="C5">
         <v>-13600000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-39400000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-169900000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>47000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-44200000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-55900000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-82100000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>69100000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>48400000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>-45800000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>-101400000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>77600000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-1600000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>-26900000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>-79500000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>51700000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>-40000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>-49600000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>-82400000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>22500000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>-18200000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>-38000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>-70000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>39900000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>-9800000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>-6200000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>-64400000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>67820000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>-4868000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>-17487000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>-66065000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>52945000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>-22943000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>-31774000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>-61646000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>36987000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>-19951000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>-20010000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>-48619000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>-21100000</v>
+      </c>
+      <c r="C6">
         <v>-26300000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-74200000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-76400000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-123000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-77100000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-20500000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>31100000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>13200000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>63600000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>-51400000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>10600000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>-7500000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>-12600000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>-50800000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-13500000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>-88400000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>-29900000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>-33800000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>-41200000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>-45100000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>900000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>-33500000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>1400000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>-29900000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>17100000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>-21000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>-47100000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>-23177000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>-12008000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>-7464000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>-5151000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>-35311000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>-17608000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>-24784000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>-9919000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>-28083000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>-30878000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>-24623000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>14899000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>-22200000</v>
+      </c>
+      <c r="C7">
         <v>-14600000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1900000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>56800000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-23800000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>20800000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>21000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>8100000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-3400000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>16300000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-18000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>19300000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>-22400000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>11400000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>19900000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>-9700000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>7600000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>13900000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>24000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>600000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>400000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>5900000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>12400000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>17600000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>-9000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>-40900000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>200000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>32500000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>-7470000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>-1493000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>1238000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>28325000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>-8825000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>3091000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>11791000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>6444000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>-13878000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>15378000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>14426000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>-2692000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>-41300000</v>
+      </c>
+      <c r="C8">
         <v>13700000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>500000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-30100000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>20300000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>100000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>12100000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-6300000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>13900000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>20000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>10700000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>-24000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>10200000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>15300000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>-6800000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-8000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>13200000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>23200000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>4700000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>5700000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>-4700000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>18300000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>16900000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>7100000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>-32400000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>12300000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>-2700000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>-5800000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>-9689000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>12394000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>13454000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>-5059000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>-8301000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>15518000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>18056000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>-10000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>-3868000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>13157000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>13199000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>-64000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>-4900000</v>
+      </c>
+      <c r="C9">
         <v>3300000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-67600000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>69600000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-1800000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-8100000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-45800000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>53900000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>7900000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-116900000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>62800000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>56200000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>-16300000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>3600000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>-45700000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>50700000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>-6800000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>-4200000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>-40100000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>35600000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>-100000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>-5300000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>-53600000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>78400000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>-24300000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>3500000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>-47600000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>83900000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>-18075000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>-3489000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>-64231000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>59195000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>-570000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>3268000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>-40972000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>72679000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>-26758000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>-4514000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>-43443000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>60001000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>5400000</v>
+      </c>
+      <c r="C10">
         <v>-36100000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-1500000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>60800000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-24100000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-14500000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-22500000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>16400000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-20000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-9800000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>8700000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>35600000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-20200000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>-12700000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-6900000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>30500000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-18000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-18900000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-7800000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>18500000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>600000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>-19400000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>-5300000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>7600000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>18900000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>-6500000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>5200000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>12800000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>-8426000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>-10350000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>-9474000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>17350000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>23915000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>-27240000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>-5095000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>2640000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>9415000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>-11648000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>-24546000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>9886000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>301900000</v>
+      </c>
+      <c r="C11">
         <v>257900000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>151200000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>230000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>156400000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>167400000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>171500000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>274800000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>321000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>289000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>250700000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>241100000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>252400000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>257300000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>128100000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>204900000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>178000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>184600000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>151900000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>159700000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>129300000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>162600000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>82900000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>210400000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>133000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>133400000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>87000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>166500000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>148315000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>140831000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>81049000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>180105000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>166450000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>110013000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>79631000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>143298000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>100847000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>101408000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>53621000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>160244000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>-41500000</v>
+      </c>
+      <c r="C12">
         <v>-44400000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-43400000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-33100000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-41200000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-45500000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-31500000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-30000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-42600000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-30000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-38200000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-46700000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-60500000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>-59700000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>-66800000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>-52800000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-78000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>-35000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>-25000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>-28800000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-36000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>-23700000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>-33700000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>-19100000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>-25600000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>-71700000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>-56900000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>-28800000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>-32534000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>-28858000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>-41649000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>-42259000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>-44262000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>-44553000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>-63330000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>-31510000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>-60282000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>-51611000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>-35411000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>-54246000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1957,595 +2104,610 @@
         <v>0</v>
       </c>
       <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>-125000000</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
       <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
         <v>-3700000</v>
       </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
       <c r="V13">
         <v>0</v>
       </c>
       <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
         <v>-800000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>-57900000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>-23500000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>-5575000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
         <v>453000</v>
       </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
         <v>-2000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>-10000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>-4000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>-20000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>-63000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>100000</v>
+      </c>
+      <c r="C15">
         <v>-100000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-500000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-100000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-300000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-100000</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>100000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-300000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-100000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1200000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-100000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>200000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>100000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>3000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>-6300000</v>
       </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
       <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
         <v>-100000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>-5100000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>-4800000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>-100000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>1900000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>-4900000</v>
       </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
       <c r="AA15">
-        <v>-100000</v>
+        <v>0</v>
       </c>
       <c r="AB15">
         <v>-100000</v>
       </c>
       <c r="AC15">
+        <v>-100000</v>
+      </c>
+      <c r="AD15">
         <v>-11718000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>-62000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>3000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>-23000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>21000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>46000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>-91000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>22000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>-66000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>-116000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>40000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>-3000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>-41400000</v>
+      </c>
+      <c r="C16">
         <v>-44500000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-43900000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-33200000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-41500000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-45600000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-31500000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-29900000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-42900000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-30100000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>-37000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>-171700000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-60600000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>-59500000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>-66900000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-52700000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>-75000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>-45000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>-25000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>-28900000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>-41100000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>-28500000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>-34600000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>-75100000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>-30500000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>-71700000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>-57000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>-28900000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>-67752000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>-28920000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>-41646000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>-42282000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>-49816000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>-44054000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>-63421000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>-31490000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>-60358000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>-51731000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>-35391000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>-54312000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
         <v>50000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>140000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-25000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>25000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-40000000</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
         <v>-50000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>110000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-100000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>-55000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-30000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>110000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>-35000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>20000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>-10000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-20000000</v>
       </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
       <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
         <v>80000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>-25000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>-50000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>15000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>60000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>5000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>35000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>-15000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>205000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>35000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>-15000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>35000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>70000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>-91800000</v>
+      </c>
+      <c r="C18">
         <v>-93300000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-47400000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>3900000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>7200000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>10800000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>7000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>6600000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>2700000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>12000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>18900000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>-44600000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>15500000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>2900000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>22000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>18100000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>-60500000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>5700000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>-38600000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>3800000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>6000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>-25700000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>-56300000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>2900000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>4300000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>2600000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>1900000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>-39000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>-9599000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>-20687000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>-163729000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>-79785000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>-25584000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>-15957000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>3502000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>-7206000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>267000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>-7159000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>4297000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>2821000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>-176900000</v>
+      </c>
+      <c r="C19">
         <v>-177500000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-178500000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-178400000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-161100000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-161000000</v>
-      </c>
-      <c r="G19">
-        <v>-160800000</v>
       </c>
       <c r="H19">
         <v>-160800000</v>
       </c>
       <c r="I19">
+        <v>-160800000</v>
+      </c>
+      <c r="J19">
         <v>-373200000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-143400000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>-143200000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>-143600000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-126300000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>-126200000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>-123100000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-123000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>-114400000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>-114800000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>-106300000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>-106400000</v>
-      </c>
-      <c r="U19">
-        <v>-92000000</v>
       </c>
       <c r="V19">
         <v>-92000000</v>
       </c>
       <c r="W19">
+        <v>-92000000</v>
+      </c>
+      <c r="X19">
         <v>-92500000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>-92600000</v>
-      </c>
-      <c r="Y19">
-        <v>-86700000</v>
       </c>
       <c r="Z19">
         <v>-86700000</v>
@@ -2554,485 +2716,497 @@
         <v>-86700000</v>
       </c>
       <c r="AB19">
+        <v>-86700000</v>
+      </c>
+      <c r="AC19">
         <v>-86500000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>-81117000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>-81247000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>-81890000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>-82846000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>-74035000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>-74193000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>-74160000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>-74193000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>-74237000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>-74219000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>-59338000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>-29662000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>-1000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>1000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>4700000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>3000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>2500000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>700000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>800000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>2800000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>2200000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>3700000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>3100000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>482000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>823000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>451000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>169000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>437000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>938000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>550000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>105000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>589000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>1139000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>954000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>-268700000</v>
+      </c>
+      <c r="C21">
         <v>-220800000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-85900000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-199500000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-128900000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-190200000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-153800000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-154200000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>-370500000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-131400000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>-174300000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>-78200000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>-210800000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>-178300000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>-71100000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-134900000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>-64900000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>-144100000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>-124900000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>-112600000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>-106000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-117700000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>-68800000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>-114700000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>-132400000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>-69100000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>-24800000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>-120500000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>-57472000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>-116452000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>-39796000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>-127180000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>-114450000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>-54713000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>280000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>-80849000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>-73865000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>-80789000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>-53902000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>-25887000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>6800000</v>
+      </c>
+      <c r="C22">
         <v>-9000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-7700000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>700000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>-300000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-2900000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1700000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-2500000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>6300000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>2800000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>1400000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>-5400000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>2700000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>-3300000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>-500000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>900000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>-600000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>-1300000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>-3600000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>2000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>1300000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>1900000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>1300000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>1000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>-4400000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>-1000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>-400000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>4500000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>-5770000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>-4850000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>769000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>-4349000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>-4017000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>-857000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>429000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>-444000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>-308000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>449000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>-715000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>-416000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>-1400000</v>
+      </c>
+      <c r="C23">
         <v>-16400000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>13700000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>-2000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-14300000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-71300000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>-12100000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>88200000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-86100000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>130300000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>40800000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>-14200000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>-16300000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>16200000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>-10400000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>18200000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>37500000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>-5800000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>-1600000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>20200000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>-16500000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>18300000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>-19200000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>21600000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>-34300000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>-8400000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>4800000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>21600000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>17321000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>-9391000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>376000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>6294000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>-1833000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>10389000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>16919000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>30515000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>-33684000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>-30663000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>-36387000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>79629000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3041,11 +3215,11 @@
         <v>0</v>
       </c>
       <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
         <v>236200000</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
       <c r="F24">
         <v>0</v>
       </c>
@@ -3053,11 +3227,11 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>245700000</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
       <c r="J24">
         <v>0</v>
       </c>
@@ -3065,11 +3239,11 @@
         <v>0</v>
       </c>
       <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>174900000</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
       <c r="N24">
         <v>0</v>
       </c>
@@ -3077,11 +3251,11 @@
         <v>0</v>
       </c>
       <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>167200000</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
       <c r="R24">
         <v>0</v>
       </c>
@@ -3089,11 +3263,11 @@
         <v>0</v>
       </c>
       <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
         <v>116900000</v>
       </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
       <c r="V24">
         <v>0</v>
       </c>
@@ -3101,11 +3275,11 @@
         <v>0</v>
       </c>
       <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
         <v>112700000</v>
       </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
       <c r="Z24">
         <v>0</v>
       </c>
@@ -3113,23 +3287,23 @@
         <v>0</v>
       </c>
       <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
         <v>129000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>-96000</v>
       </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
       <c r="AE24">
         <v>0</v>
       </c>
       <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
         <v>114496000</v>
       </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
       <c r="AH24">
         <v>0</v>
       </c>
@@ -3137,11 +3311,11 @@
         <v>0</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
         <v>58506000</v>
       </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
       <c r="AL24">
         <v>0</v>
       </c>
@@ -3149,203 +3323,209 @@
         <v>0</v>
       </c>
       <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
         <v>79611000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>-1400000</v>
+      </c>
+      <c r="C25">
         <v>-16400000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>13700000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>234200000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-14300000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>-71300000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>-12100000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>333900000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-86100000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>130300000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>40800000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>160700000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>-16300000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>16200000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>-10400000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>185400000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>37500000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>-5800000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>-1600000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>137100000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>-16500000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>18300000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>-19200000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>134300000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>-34300000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>-8400000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>4800000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>150600000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>17225000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>-9391000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>376000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>120790000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>-1833000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>10389000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>16919000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>89021000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>-33684000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>-30663000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>-36387000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>159240000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>2800000</v>
+      </c>
+      <c r="C26">
         <v>1400000</v>
-      </c>
-      <c r="C26">
-        <v>1500000</v>
       </c>
       <c r="D26">
         <v>1500000</v>
       </c>
       <c r="E26">
+        <v>1500000</v>
+      </c>
+      <c r="F26">
         <v>1300000</v>
-      </c>
-      <c r="F26">
-        <v>1400000</v>
       </c>
       <c r="G26">
         <v>1400000</v>
       </c>
       <c r="H26">
+        <v>1400000</v>
+      </c>
+      <c r="I26">
         <v>1500000</v>
-      </c>
-      <c r="I26">
-        <v>1400000</v>
       </c>
       <c r="J26">
         <v>1400000</v>
       </c>
       <c r="K26">
+        <v>1400000</v>
+      </c>
+      <c r="L26">
         <v>1300000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1600000</v>
-      </c>
-      <c r="M26">
-        <v>1400000</v>
       </c>
       <c r="N26">
         <v>1400000</v>
       </c>
       <c r="O26">
+        <v>1400000</v>
+      </c>
+      <c r="P26">
         <v>1300000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>1600000</v>
-      </c>
-      <c r="Q26">
-        <v>1300000</v>
       </c>
       <c r="R26">
         <v>1300000</v>
       </c>
       <c r="S26">
+        <v>1300000</v>
+      </c>
+      <c r="T26">
         <v>1100000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>1400000</v>
-      </c>
-      <c r="U26">
-        <v>1200000</v>
       </c>
       <c r="V26">
         <v>1200000</v>
       </c>
       <c r="W26">
+        <v>1200000</v>
+      </c>
+      <c r="X26">
         <v>1600000</v>
-      </c>
-      <c r="X26">
-        <v>1200000</v>
       </c>
       <c r="Y26">
         <v>1200000</v>
@@ -3354,37 +3534,37 @@
         <v>1200000</v>
       </c>
       <c r="AA26">
+        <v>1200000</v>
+      </c>
+      <c r="AB26">
         <v>700000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>1000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>1159000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>1200000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>1821000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>1620000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>2419000</v>
-      </c>
-      <c r="AH26">
-        <v>1620000</v>
       </c>
       <c r="AI26">
         <v>1620000</v>
       </c>
       <c r="AJ26">
+        <v>1620000</v>
+      </c>
+      <c r="AK26">
         <v>1380000</v>
-      </c>
-      <c r="AK26">
-        <v>1350000</v>
       </c>
       <c r="AL26">
         <v>1350000</v>
@@ -3395,82 +3575,85 @@
       <c r="AN26">
         <v>1350000</v>
       </c>
+      <c r="AO26">
+        <v>1350000</v>
+      </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>-176900000</v>
+      </c>
+      <c r="C27">
         <v>-177500000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-178500000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-178400000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-161100000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>-161000000</v>
-      </c>
-      <c r="G27">
-        <v>-160800000</v>
       </c>
       <c r="H27">
         <v>-160800000</v>
       </c>
       <c r="I27">
+        <v>-160800000</v>
+      </c>
+      <c r="J27">
         <v>-373200000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-143400000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>-143200000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>-143600000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-126300000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>-126200000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>-123100000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>-123000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>-114400000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>-114800000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>-106300000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>-106400000</v>
-      </c>
-      <c r="U27">
-        <v>-92000000</v>
       </c>
       <c r="V27">
         <v>-92000000</v>
       </c>
       <c r="W27">
+        <v>-92000000</v>
+      </c>
+      <c r="X27">
         <v>-92500000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>-92600000</v>
-      </c>
-      <c r="Y27">
-        <v>-86700000</v>
       </c>
       <c r="Z27">
         <v>-86700000</v>
@@ -3479,559 +3662,574 @@
         <v>-86700000</v>
       </c>
       <c r="AB27">
+        <v>-86700000</v>
+      </c>
+      <c r="AC27">
         <v>-86500000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>-81117000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>-81247000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>-81890000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>-82846000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>-74035000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>-74193000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>-74160000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>-74193000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>-74237000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>-74219000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>-59338000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>-29662000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>0.012</v>
+      </c>
+      <c r="C28">
         <v>0.0123</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.0089</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.0038</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>0.0042</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0.0039</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>0.0028</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>0.0025</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.0057</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>0.0028</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>0.0122</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>0.0164</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>0.008</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>0.0135</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>0.0174</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>0.0161</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>0.0222</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>0.0156</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>0.021</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>0.0175</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>0.019</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.0233</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>0.0262</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>0.0155</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>0.0204</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>0.0247</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>0.0214</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>0.0155</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>0.0198</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>0.0237</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>0.0179</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-0.0025</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>-0.0017</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>-0.008699999999999999</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>-0.0072</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>-0.0061</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>-0.0042</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>-0.0062</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>-0.0091</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>-0.0108</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>19000000</v>
+      </c>
+      <c r="C29">
         <v>-73600000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>-180300000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>-89200000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-105400000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-123000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-111600000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>21100000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>80700000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>21600000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>-33000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-3700000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>21400000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>3400000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-117200000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>-29500000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-40700000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>-55900000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>-102600000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>-63200000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-26400000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>-17800000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-101100000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>42100000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>-36800000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>-24300000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>-72100000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>11900000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>983000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>-19814000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>-83964000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>28595000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>23853000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>-45914000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>-72778000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>10188000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>-26185000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>-38456000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>-84997000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>33411000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
         <v>453000</v>
       </c>
-      <c r="AI30">
-        <v>0</v>
-      </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
         <v>-2000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>-10000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>-4000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>-20000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>-63000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>-91800000</v>
+      </c>
+      <c r="C31">
         <v>-93300000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-47400000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>3900000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>7200000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>10800000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>7000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>6600000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>2700000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>12000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>18900000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>-44600000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>15500000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>2900000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>22000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>18100000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>-60500000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>5700000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>-38600000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>3800000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>6000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>-25700000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-56300000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>2900000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>4300000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>2600000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>1900000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>-39000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>-9599000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>-20687000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>-163729000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>-79785000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>-25584000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>-15957000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>3502000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>-7206000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>267000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>-7159000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>4297000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>2821000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>-91800000</v>
+      </c>
+      <c r="C32">
         <v>-93300000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-47400000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>3900000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>7200000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>10800000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>7000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>6600000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>2700000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>12000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>18900000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>-44600000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>15500000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>2900000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>22000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>18100000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>-60500000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>5700000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>-38600000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>3800000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>6000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>-25700000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>-56300000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>2900000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>4300000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>2600000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>1900000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>-39000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>-9599000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>-20687000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>-163729000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>-79785000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>-25584000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>-15957000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>3502000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>-7206000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>267000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>-7159000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>4297000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>2821000</v>
       </c>
     </row>
